--- a/seacreatures.xlsx
+++ b/seacreatures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0bd2799b14fed3a1/Onenote/GitHub/fish_species_detection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspe\OneDrive\Onenote\GitHub\fish_species_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="11_960DBF7531BD0F2A2F3CF188BD7C7455F3707528" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B5925A-7983-4D55-A39F-691AED661569}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB83E26-7CB7-478E-8E74-B4A6425D2B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1695" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L270"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2">
-        <v>1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,9 @@
         <v>28</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2">
+        <v>148</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -1626,7 +1628,9 @@
         <v>22.5</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="2">
+        <v>150</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
@@ -1636,7 +1640,9 @@
         <v>26.5</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2">
+        <v>152</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -1646,7 +1652,9 @@
         <v>21.5</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2">
+        <v>154</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
@@ -1656,7 +1664,9 @@
         <v>24.5</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2">
+        <v>156</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -1666,7 +1676,9 @@
         <v>29.5</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="2">
+        <v>158</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -1676,7 +1688,9 @@
         <v>27.5</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2">
+        <v>160</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -1686,7 +1700,9 @@
         <v>25</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="D78" s="2">
+        <v>162</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -1696,7 +1712,9 @@
         <v>27</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="D79" s="2">
+        <v>164</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
@@ -1706,7 +1724,9 @@
         <v>26.5</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="2">
+        <v>166</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
@@ -1716,7 +1736,9 @@
         <v>20.5</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="D81" s="2">
+        <v>168</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
@@ -1726,7 +1748,9 @@
         <v>28.5</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="D82" s="2">
+        <v>170</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
@@ -1736,7 +1760,9 @@
         <v>26</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="D83" s="2">
+        <v>172</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -1746,7 +1772,9 @@
         <v>21.5</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="2">
+        <v>174</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
@@ -1756,7 +1784,9 @@
         <v>25</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="D85" s="2">
+        <v>176</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -1766,7 +1796,9 @@
         <v>22.5</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="D86" s="2">
+        <v>178</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
@@ -1776,7 +1808,9 @@
         <v>27</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="2">
+        <v>180</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
@@ -1786,7 +1820,9 @@
         <v>24.5</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="D88" s="2">
+        <v>182</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
@@ -1796,7 +1832,9 @@
         <v>26.5</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>184</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
@@ -1806,7 +1844,9 @@
         <v>28</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="2">
+        <v>186</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -1816,7 +1856,9 @@
         <v>29</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2">
+        <v>188</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
@@ -1826,7 +1868,9 @@
         <v>24</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="2">
+        <v>190</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
@@ -1836,7 +1880,9 @@
         <v>30.5</v>
       </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="2">
+        <v>192</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
@@ -1846,7 +1892,9 @@
         <v>25</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="2">
+        <v>194</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
@@ -1856,7 +1904,9 @@
         <v>28</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="D95" s="2">
+        <v>196</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
@@ -1866,7 +1916,9 @@
         <v>27</v>
       </c>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="D96" s="2">
+        <v>198</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
@@ -1876,7 +1928,9 @@
         <v>28</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="D97" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -1886,7 +1940,9 @@
         <v>22</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="D98" s="2">
+        <v>202</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
@@ -1896,7 +1952,9 @@
         <v>27.5</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="2">
+        <v>204</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
@@ -1906,7 +1964,9 @@
         <v>25.5</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="2">
+        <v>206</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
@@ -1916,7 +1976,9 @@
         <v>25</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="D101" s="2">
+        <v>208</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
@@ -1926,7 +1988,9 @@
         <v>27</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="2">
+        <v>210</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -3450,15 +3514,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009E16EE7F4C537C4ABFA407FB2C41B1C3" ma:contentTypeVersion="14" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="95de28441f96fc3214151cf7c07046a0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24c72473-a6f8-4ab9-b557-03d61fd61282" xmlns:ns3="6cb94949-7264-4e0b-b21a-9bdc50945768" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8da4ea20e3bb0e14e5b3e046fcf53faa" ns2:_="" ns3:_="">
     <xsd:import namespace="24c72473-a6f8-4ab9-b557-03d61fd61282"/>
@@ -3673,15 +3728,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B729CB-E3EA-410E-92DC-A8953CDD05F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{056E0049-3ACE-4B71-AF49-9AE4CDEAFBA2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3698,4 +3754,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B729CB-E3EA-410E-92DC-A8953CDD05F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/seacreatures.xlsx
+++ b/seacreatures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspe\OneDrive\Onenote\GitHub\fish_species_detection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0bd2799b14fed3a1/Onenote/GitHub/fish_species_detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB83E26-7CB7-478E-8E74-B4A6425D2B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7FB83E26-7CB7-478E-8E74-B4A6425D2B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DC43A67-2682-4256-B78D-1E1EB87C529A}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,7 +2000,9 @@
         <v>30.5</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="2">
+        <v>212</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -2010,7 +2012,9 @@
         <v>23</v>
       </c>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="2">
+        <v>214</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
@@ -2022,7 +2026,9 @@
       <c r="C105" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="2"/>
+      <c r="D105" s="2">
+        <v>216</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
@@ -2034,7 +2040,9 @@
       <c r="C106" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="2"/>
+      <c r="D106" s="2">
+        <v>218</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
@@ -2046,7 +2054,9 @@
       <c r="C107" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D107" s="2"/>
+      <c r="D107" s="2">
+        <v>220</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
@@ -2058,7 +2068,9 @@
       <c r="C108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="2"/>
+      <c r="D108" s="2">
+        <v>222</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
@@ -2070,7 +2082,9 @@
       <c r="C109" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="2"/>
+      <c r="D109" s="2">
+        <v>224</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -2082,7 +2096,9 @@
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="2"/>
+      <c r="D110" s="2">
+        <v>226</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
@@ -2094,7 +2110,9 @@
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="2"/>
+      <c r="D111" s="2">
+        <v>228</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
@@ -2106,7 +2124,9 @@
       <c r="C112" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="2"/>
+      <c r="D112" s="2">
+        <v>230</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
@@ -2118,7 +2138,9 @@
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="2"/>
+      <c r="D113" s="2">
+        <v>232</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
@@ -2130,7 +2152,9 @@
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2">
+        <v>234</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
@@ -2142,7 +2166,9 @@
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D115" s="2"/>
+      <c r="D115" s="2">
+        <v>236</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
@@ -2154,7 +2180,9 @@
       <c r="C116" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D116" s="2"/>
+      <c r="D116" s="2">
+        <v>238</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -2166,7 +2194,9 @@
       <c r="C117" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="2"/>
+      <c r="D117" s="2">
+        <v>240</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
@@ -2178,7 +2208,9 @@
       <c r="C118" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D118" s="2"/>
+      <c r="D118" s="2">
+        <v>242</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
@@ -2190,7 +2222,9 @@
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D119" s="2"/>
+      <c r="D119" s="2">
+        <v>244</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
@@ -2202,7 +2236,9 @@
       <c r="C120" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="2"/>
+      <c r="D120" s="2">
+        <v>246</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
@@ -2214,7 +2250,9 @@
       <c r="C121" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D121" s="2"/>
+      <c r="D121" s="2">
+        <v>248</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -2226,7 +2264,9 @@
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="2"/>
+      <c r="D122" s="2">
+        <v>250</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
@@ -2238,7 +2278,9 @@
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D123" s="2"/>
+      <c r="D123" s="2">
+        <v>252</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
@@ -2250,7 +2292,9 @@
       <c r="C124" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D124" s="2"/>
+      <c r="D124" s="2">
+        <v>254</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
@@ -2262,7 +2306,9 @@
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D125" s="2"/>
+      <c r="D125" s="2">
+        <v>256</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
@@ -2274,7 +2320,9 @@
       <c r="C126" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D126" s="2"/>
+      <c r="D126" s="2">
+        <v>258</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
@@ -2286,7 +2334,9 @@
       <c r="C127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D127" s="2"/>
+      <c r="D127" s="2">
+        <v>260</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
@@ -2298,7 +2348,9 @@
       <c r="C128" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D128" s="2"/>
+      <c r="D128" s="2">
+        <v>262</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -2310,7 +2362,9 @@
       <c r="C129" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D129" s="2"/>
+      <c r="D129" s="2">
+        <v>264</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
@@ -2322,7 +2376,9 @@
       <c r="C130" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D130" s="2"/>
+      <c r="D130" s="2">
+        <v>266</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
@@ -2334,7 +2390,9 @@
       <c r="C131" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D131" s="2"/>
+      <c r="D131" s="2">
+        <v>268</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
@@ -2346,7 +2404,9 @@
       <c r="C132" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D132" s="2"/>
+      <c r="D132" s="2">
+        <v>270</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
@@ -2358,7 +2418,9 @@
       <c r="C133" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D133" s="2"/>
+      <c r="D133" s="2">
+        <v>272</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -2370,7 +2432,9 @@
       <c r="C134" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D134" s="2"/>
+      <c r="D134" s="2">
+        <v>274</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
@@ -2382,7 +2446,9 @@
       <c r="C135" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D135" s="2"/>
+      <c r="D135" s="2">
+        <v>276</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
@@ -2394,7 +2460,9 @@
       <c r="C136" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D136" s="2"/>
+      <c r="D136" s="2">
+        <v>278</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
@@ -2406,7 +2474,9 @@
       <c r="C137" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="2"/>
+      <c r="D137" s="2">
+        <v>280</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
@@ -2418,7 +2488,9 @@
       <c r="C138" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D138" s="2"/>
+      <c r="D138" s="2">
+        <v>282</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
@@ -2430,7 +2502,9 @@
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="2"/>
+      <c r="D139" s="2">
+        <v>284</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
@@ -2442,7 +2516,9 @@
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D140" s="2"/>
+      <c r="D140" s="2">
+        <v>286</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -2454,7 +2530,9 @@
       <c r="C141" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D141" s="2"/>
+      <c r="D141" s="2">
+        <v>288</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
@@ -2466,7 +2544,9 @@
       <c r="C142" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D142" s="2"/>
+      <c r="D142" s="2">
+        <v>290</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
@@ -2478,7 +2558,9 @@
       <c r="C143" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D143" s="2"/>
+      <c r="D143" s="2">
+        <v>292</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
@@ -2490,7 +2572,9 @@
       <c r="C144" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D144" s="2"/>
+      <c r="D144" s="2">
+        <v>294</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
@@ -2502,7 +2586,9 @@
       <c r="C145" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D145" s="2"/>
+      <c r="D145" s="2">
+        <v>296</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -2514,7 +2600,9 @@
       <c r="C146" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D146" s="2"/>
+      <c r="D146" s="2">
+        <v>298</v>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
@@ -2526,7 +2614,9 @@
       <c r="C147" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D147" s="2"/>
+      <c r="D147" s="2">
+        <v>300</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
@@ -2538,7 +2628,9 @@
       <c r="C148" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D148" s="2"/>
+      <c r="D148" s="2">
+        <v>302</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
@@ -2550,7 +2642,9 @@
       <c r="C149" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D149" s="2"/>
+      <c r="D149" s="2">
+        <v>304</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
@@ -2562,7 +2656,9 @@
       <c r="C150" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D150" s="2"/>
+      <c r="D150" s="2">
+        <v>306</v>
+      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
@@ -2574,7 +2670,9 @@
       <c r="C151" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D151" s="2"/>
+      <c r="D151" s="2">
+        <v>308</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
@@ -2586,7 +2684,9 @@
       <c r="C152" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D152" s="2"/>
+      <c r="D152" s="2">
+        <v>310</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -2598,7 +2698,9 @@
       <c r="C153" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D153" s="2"/>
+      <c r="D153" s="2">
+        <v>312</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
@@ -2610,7 +2712,9 @@
       <c r="C154" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D154" s="2"/>
+      <c r="D154" s="2">
+        <v>314</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
@@ -2622,7 +2726,9 @@
       <c r="C155" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D155" s="2"/>
+      <c r="D155" s="2">
+        <v>316</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
@@ -2634,7 +2740,9 @@
       <c r="C156" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D156" s="2"/>
+      <c r="D156" s="2">
+        <v>318</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -2646,7 +2754,9 @@
       <c r="C157" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D157" s="2"/>
+      <c r="D157" s="2">
+        <v>320</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
@@ -2658,7 +2768,9 @@
       <c r="C158" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D158" s="2"/>
+      <c r="D158" s="2">
+        <v>322</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
@@ -2670,7 +2782,9 @@
       <c r="C159" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D159" s="2"/>
+      <c r="D159" s="2">
+        <v>324</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
@@ -2682,7 +2796,9 @@
       <c r="C160" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D160" s="2"/>
+      <c r="D160" s="2">
+        <v>326</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
@@ -2694,7 +2810,9 @@
       <c r="C161" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D161" s="2"/>
+      <c r="D161" s="2">
+        <v>328</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
@@ -2706,7 +2824,9 @@
       <c r="C162" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D162" s="2"/>
+      <c r="D162" s="2">
+        <v>330</v>
+      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -2718,7 +2838,9 @@
       <c r="C163" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D163" s="2"/>
+      <c r="D163" s="2">
+        <v>332</v>
+      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
@@ -2730,7 +2852,9 @@
       <c r="C164" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D164" s="2"/>
+      <c r="D164" s="2">
+        <v>334</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
@@ -2742,7 +2866,9 @@
       <c r="C165" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D165" s="2"/>
+      <c r="D165" s="2">
+        <v>336</v>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
@@ -2754,7 +2880,9 @@
       <c r="C166" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D166" s="2"/>
+      <c r="D166" s="2">
+        <v>338</v>
+      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -2766,7 +2894,9 @@
       <c r="C167" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D167" s="2"/>
+      <c r="D167" s="2">
+        <v>340</v>
+      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
@@ -2778,7 +2908,9 @@
       <c r="C168" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D168" s="2"/>
+      <c r="D168" s="2">
+        <v>342</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
@@ -2790,7 +2922,9 @@
       <c r="C169" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D169" s="2"/>
+      <c r="D169" s="2">
+        <v>344</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
@@ -2802,7 +2936,9 @@
       <c r="C170" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D170" s="2"/>
+      <c r="D170" s="2">
+        <v>346</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
@@ -2814,7 +2950,9 @@
       <c r="C171" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D171" s="2"/>
+      <c r="D171" s="2">
+        <v>348</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
@@ -2826,7 +2964,9 @@
       <c r="C172" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D172" s="2"/>
+      <c r="D172" s="2">
+        <v>350</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -2838,7 +2978,9 @@
       <c r="C173" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D173" s="2"/>
+      <c r="D173" s="2">
+        <v>352</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
@@ -2850,7 +2992,9 @@
       <c r="C174" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D174" s="2"/>
+      <c r="D174" s="2">
+        <v>354</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
@@ -2862,7 +3006,9 @@
       <c r="C175" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D175" s="2"/>
+      <c r="D175" s="2">
+        <v>356</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
@@ -2874,7 +3020,9 @@
       <c r="C176" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D176" s="2"/>
+      <c r="D176" s="2">
+        <v>358</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -2886,7 +3034,9 @@
       <c r="C177" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D177" s="2"/>
+      <c r="D177" s="2">
+        <v>360</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
@@ -2898,7 +3048,9 @@
       <c r="C178" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D178" s="2"/>
+      <c r="D178" s="2">
+        <v>362</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
@@ -2910,7 +3062,9 @@
       <c r="C179" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D179" s="2"/>
+      <c r="D179" s="2">
+        <v>364</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
@@ -2922,7 +3076,9 @@
       <c r="C180" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D180" s="2"/>
+      <c r="D180" s="2">
+        <v>366</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
@@ -2934,7 +3090,9 @@
       <c r="C181" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D181" s="2"/>
+      <c r="D181" s="2">
+        <v>368</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
@@ -2946,7 +3104,9 @@
       <c r="C182" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D182" s="2"/>
+      <c r="D182" s="2">
+        <v>370</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -2958,7 +3118,9 @@
       <c r="C183" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D183" s="2"/>
+      <c r="D183" s="2">
+        <v>372</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
@@ -2970,7 +3132,9 @@
       <c r="C184" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D184" s="2"/>
+      <c r="D184" s="2">
+        <v>374</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
@@ -2982,7 +3146,9 @@
       <c r="C185" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D185" s="2"/>
+      <c r="D185" s="2">
+        <v>376</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
@@ -2994,7 +3160,9 @@
       <c r="C186" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D186" s="2"/>
+      <c r="D186" s="2">
+        <v>378</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -3006,7 +3174,9 @@
       <c r="C187" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D187" s="2"/>
+      <c r="D187" s="2">
+        <v>380</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
@@ -3514,6 +3684,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009E16EE7F4C537C4ABFA407FB2C41B1C3" ma:contentTypeVersion="14" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="95de28441f96fc3214151cf7c07046a0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24c72473-a6f8-4ab9-b557-03d61fd61282" xmlns:ns3="6cb94949-7264-4e0b-b21a-9bdc50945768" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8da4ea20e3bb0e14e5b3e046fcf53faa" ns2:_="" ns3:_="">
     <xsd:import namespace="24c72473-a6f8-4ab9-b557-03d61fd61282"/>
@@ -3728,16 +3907,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B729CB-E3EA-410E-92DC-A8953CDD05F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{056E0049-3ACE-4B71-AF49-9AE4CDEAFBA2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3754,12 +3932,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B729CB-E3EA-410E-92DC-A8953CDD05F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/seacreatures.xlsx
+++ b/seacreatures.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0bd2799b14fed3a1/Onenote/GitHub/fish_species_detection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk.sharepoint.com/sites/Fiskeprojekt/Delte dokumenter/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7FB83E26-7CB7-478E-8E74-B4A6425D2B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DC43A67-2682-4256-B78D-1E1EB87C529A}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{6136A080-72D8-4529-8054-D47B41A6ACAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{405A9CA8-AD11-44C0-B61B-90E6008CB767}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="39">
+  <si>
+    <t>Fish number</t>
+  </si>
   <si>
     <t>Lenght</t>
   </si>
@@ -34,12 +47,6 @@
   </si>
   <si>
     <t>Photo</t>
-  </si>
-  <si>
-    <t>Fish number</t>
-  </si>
-  <si>
-    <t>GoPro hero 10 black settings</t>
   </si>
   <si>
     <t>Sej</t>
@@ -96,10 +103,10 @@
     <t>Rogn</t>
   </si>
   <si>
-    <t>Blæksprutte</t>
+    <t>Knivmusling</t>
   </si>
   <si>
-    <t>Knivmusling</t>
+    <t>Blæksprutte</t>
   </si>
   <si>
     <t>Stor fisk</t>
@@ -140,6 +147,12 @@
   <si>
     <t>Gammel torsk</t>
   </si>
+  <si>
+    <t>Et billede er slettet her (146)</t>
+  </si>
+  <si>
+    <t>Kuller</t>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +188,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -210,11 +229,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,6 +271,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -249,16 +313,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289213</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>136813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508288</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -273,8 +337,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2814205" y="171450"/>
-          <a:ext cx="3855893" cy="3162300"/>
+          <a:off x="4154631" y="677140"/>
+          <a:ext cx="3876675" cy="2985655"/>
           <a:chOff x="4943475" y="638175"/>
           <a:chExt cx="3876675" cy="3162300"/>
         </a:xfrm>
@@ -749,1274 +813,1928 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L270"/>
+  <dimension ref="A1:O270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>25.5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>29</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>26.5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>15</v>
+      </c>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>27</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>17</v>
+      </c>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>29.5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>19</v>
+      </c>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>23</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>21</v>
+      </c>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>23</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>23</v>
+      </c>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>20.5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>25</v>
+      </c>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>22.5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>27</v>
+      </c>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>25</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <v>29</v>
+      </c>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>27.5</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>31</v>
+      </c>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>26.5</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>33</v>
+      </c>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>27.5</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>35</v>
+      </c>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>27</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <v>37</v>
+      </c>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>29</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <v>39</v>
+      </c>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>27.5</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <v>41</v>
+      </c>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>28.5</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <v>43</v>
+      </c>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>29</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <v>45</v>
+      </c>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>31</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <v>47</v>
+      </c>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>20.5</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="2">
+        <v>49</v>
+      </c>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>20.5</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="2">
+        <v>51</v>
+      </c>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>26.5</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2">
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="2">
+        <v>53</v>
+      </c>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>27.5</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="2">
+        <v>55</v>
+      </c>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>24.5</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="2">
+        <v>57</v>
+      </c>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>29.5</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="2">
+        <v>59</v>
+      </c>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>26.5</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2">
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="2">
+        <v>61</v>
+      </c>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" s="2">
+        <v>63</v>
+      </c>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>31.5</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" s="2">
+        <v>65</v>
+      </c>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>26</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
+      <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="2">
+        <v>67</v>
+      </c>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>26.5</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="2">
+        <v>69</v>
+      </c>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>26</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="2">
+        <v>71</v>
+      </c>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>26.5</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2">
+      <c r="C33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="2">
+        <v>73</v>
+      </c>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>24</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="2">
+        <v>75</v>
+      </c>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>27.5</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2">
+      <c r="C35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="2">
+        <v>77</v>
+      </c>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>31</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>25.5</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
+      <c r="C37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>26</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2">
+      <c r="C38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>22.5</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>23</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>28.5</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2">
+      <c r="C41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>27.5</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2">
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>25</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2">
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>22</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2">
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>23.5</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2">
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>26.5</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2">
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>25</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2">
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>26.5</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2">
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>26.5</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2">
+      <c r="C49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>28.5</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2">
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>26.5</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2">
+      <c r="C51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>29.5</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2">
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>24</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2">
+      <c r="C53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>27.5</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2">
+      <c r="C54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>24</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2">
+      <c r="C55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>24</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2">
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2">
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>26</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2">
+      <c r="C57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>27</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2">
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2">
         <v>122</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>32</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2">
+      <c r="C59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2">
         <v>124</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>28.5</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2">
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>30.5</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2">
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
         <v>128</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>30</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2">
+      <c r="C62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>29.5</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2">
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>26.5</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2">
+      <c r="C64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2">
         <v>134</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>27.5</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2">
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2">
         <v>136</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>26</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2">
+      <c r="C66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2">
         <v>138</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>21.5</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2">
+      <c r="C67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>25.5</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2">
+      <c r="C68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>26</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2">
+      <c r="C69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>29.5</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="5">
+        <v>147</v>
+      </c>
+      <c r="F70" s="2">
+        <v>148</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>28</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2">
+        <v>149</v>
+      </c>
+      <c r="F71" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>22.5</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2">
+        <v>151</v>
+      </c>
+      <c r="F72" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>26.5</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2">
+        <v>153</v>
+      </c>
+      <c r="F73" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>21.5</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2">
+        <v>155</v>
+      </c>
+      <c r="F74" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>24.5</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2">
+        <v>157</v>
+      </c>
+      <c r="F75" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>29.5</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2">
+        <v>159</v>
+      </c>
+      <c r="F76" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>27.5</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2">
+        <v>161</v>
+      </c>
+      <c r="F77" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>25</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2">
+        <v>163</v>
+      </c>
+      <c r="F78" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>27</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2">
+        <v>165</v>
+      </c>
+      <c r="F79" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>26.5</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2">
+        <v>167</v>
+      </c>
+      <c r="F80" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>20.5</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2">
+        <v>169</v>
+      </c>
+      <c r="F81" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>28.5</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2">
+        <v>171</v>
+      </c>
+      <c r="F82" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2">
         <v>26</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2">
+        <v>173</v>
+      </c>
+      <c r="F83" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>21.5</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2">
+        <v>175</v>
+      </c>
+      <c r="F84" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>25</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2">
+        <v>177</v>
+      </c>
+      <c r="F85" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>22.5</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2">
+        <v>179</v>
+      </c>
+      <c r="F86" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2">
         <v>27</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2">
+        <v>181</v>
+      </c>
+      <c r="F87" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>24.5</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2">
+        <v>183</v>
+      </c>
+      <c r="F88" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>26.5</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2">
+        <v>185</v>
+      </c>
+      <c r="F89" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>28</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2">
+        <v>187</v>
+      </c>
+      <c r="F90" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>29</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2">
+        <v>189</v>
+      </c>
+      <c r="F91" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>24</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2">
+        <v>191</v>
+      </c>
+      <c r="F92" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>30.5</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2">
+        <v>193</v>
+      </c>
+      <c r="F93" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>25</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2">
+        <v>195</v>
+      </c>
+      <c r="F94" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>28</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2">
+        <v>197</v>
+      </c>
+      <c r="F95" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>27</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2">
+        <v>199</v>
+      </c>
+      <c r="F96" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>28</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2">
+        <v>201</v>
+      </c>
+      <c r="F97" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>22</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2">
+        <v>203</v>
+      </c>
+      <c r="F98" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>27.5</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2">
+        <v>205</v>
+      </c>
+      <c r="F99" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2">
         <v>25.5</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2">
+        <v>207</v>
+      </c>
+      <c r="F100" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2">
         <v>25</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2">
+        <v>209</v>
+      </c>
+      <c r="F101" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="2">
         <v>27</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2">
+        <v>211</v>
+      </c>
+      <c r="F102" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="2">
         <v>30.5</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2">
+        <v>213</v>
+      </c>
+      <c r="F103" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="2">
         <v>23</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2">
+        <v>215</v>
+      </c>
+      <c r="F104" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -2024,13 +2742,18 @@
         <v>21</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="2">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2">
+        <v>217</v>
+      </c>
+      <c r="F105" s="2">
+        <v>218</v>
+      </c>
+      <c r="H105" s="10"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -2038,13 +2761,17 @@
         <v>34.5</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="2">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2">
+        <v>219</v>
+      </c>
+      <c r="F106" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -2052,13 +2779,17 @@
         <v>31</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2">
+        <v>221</v>
+      </c>
+      <c r="F107" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -2066,13 +2797,17 @@
         <v>25.5</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="2">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2">
+        <v>223</v>
+      </c>
+      <c r="F108" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -2080,13 +2815,17 @@
         <v>22.5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="2">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2">
+        <v>225</v>
+      </c>
+      <c r="F109" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -2094,13 +2833,17 @@
         <v>24.5</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2">
+        <v>227</v>
+      </c>
+      <c r="F110" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -2108,13 +2851,17 @@
         <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2">
+        <v>229</v>
+      </c>
+      <c r="F111" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -2122,13 +2869,17 @@
         <v>18.5</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D112" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2">
+        <v>231</v>
+      </c>
+      <c r="F112" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -2136,13 +2887,17 @@
         <v>21</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" s="2">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2">
+        <v>233</v>
+      </c>
+      <c r="F113" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -2150,13 +2905,17 @@
         <v>4.5</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2">
+        <v>235</v>
+      </c>
+      <c r="F114" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -2164,13 +2923,17 @@
         <v>6</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2">
+        <v>237</v>
+      </c>
+      <c r="F115" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -2178,13 +2941,17 @@
         <v>6.5</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" s="2">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2">
+        <v>239</v>
+      </c>
+      <c r="F116" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -2192,13 +2959,17 @@
         <v>15.5</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="2">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2">
+        <v>241</v>
+      </c>
+      <c r="F117" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -2206,13 +2977,17 @@
         <v>14.5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D118" s="2">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2">
+        <v>243</v>
+      </c>
+      <c r="F118" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -2220,13 +2995,17 @@
         <v>12.5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D119" s="2">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2">
+        <v>245</v>
+      </c>
+      <c r="F119" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -2234,13 +3013,17 @@
         <v>13</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="2">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2">
+        <v>247</v>
+      </c>
+      <c r="F120" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -2248,13 +3031,17 @@
         <v>15</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="2">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2">
+        <v>249</v>
+      </c>
+      <c r="F121" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -2262,13 +3049,17 @@
         <v>31</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2">
+        <v>251</v>
+      </c>
+      <c r="F122" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -2276,13 +3067,17 @@
         <v>27.5</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2">
+        <v>253</v>
+      </c>
+      <c r="F123" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -2290,13 +3085,17 @@
         <v>9</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D124" s="2">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2">
+        <v>255</v>
+      </c>
+      <c r="F124" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -2304,13 +3103,17 @@
         <v>12</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="2">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2">
+        <v>257</v>
+      </c>
+      <c r="F125" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -2318,13 +3121,17 @@
         <v>14.5</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="2">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2">
+        <v>259</v>
+      </c>
+      <c r="F126" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -2332,13 +3139,17 @@
         <v>10</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" s="2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2">
+        <v>261</v>
+      </c>
+      <c r="F127" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -2346,13 +3157,17 @@
         <v>13</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="2">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2">
+        <v>263</v>
+      </c>
+      <c r="F128" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -2360,13 +3175,17 @@
         <v>12</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="2">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2">
+        <v>265</v>
+      </c>
+      <c r="F129" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -2374,13 +3193,17 @@
         <v>9.5</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="2">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2">
+        <v>267</v>
+      </c>
+      <c r="F130" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -2388,13 +3211,17 @@
         <v>10.5</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131" s="2">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2">
+        <v>269</v>
+      </c>
+      <c r="F131" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -2402,13 +3229,17 @@
         <v>17</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2">
+        <v>271</v>
+      </c>
+      <c r="F132" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -2416,13 +3247,17 @@
         <v>10.5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D133" s="2">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2">
+        <v>273</v>
+      </c>
+      <c r="F133" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -2430,13 +3265,17 @@
         <v>8</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D134" s="2">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2">
+        <v>275</v>
+      </c>
+      <c r="F134" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -2444,13 +3283,17 @@
         <v>23.5</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D135" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2">
+        <v>277</v>
+      </c>
+      <c r="F135" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -2460,11 +3303,15 @@
       <c r="C136" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D136" s="2">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="2"/>
+      <c r="E136" s="2">
+        <v>279</v>
+      </c>
+      <c r="F136" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -2474,11 +3321,15 @@
       <c r="C137" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="2"/>
+      <c r="E137" s="2">
+        <v>281</v>
+      </c>
+      <c r="F137" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -2488,11 +3339,15 @@
       <c r="C138" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D138" s="2">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="2"/>
+      <c r="E138" s="2">
+        <v>283</v>
+      </c>
+      <c r="F138" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -2500,13 +3355,17 @@
         <v>36</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D139" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2">
+        <v>285</v>
+      </c>
+      <c r="F139" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -2514,13 +3373,17 @@
         <v>50.5</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D140" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2">
+        <v>287</v>
+      </c>
+      <c r="F140" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -2528,13 +3391,17 @@
         <v>39.5</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D141" s="2">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2">
+        <v>289</v>
+      </c>
+      <c r="F141" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -2542,13 +3409,17 @@
         <v>38</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D142" s="2">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2">
+        <v>291</v>
+      </c>
+      <c r="F142" s="2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -2556,13 +3427,17 @@
         <v>30</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="2">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2">
+        <v>293</v>
+      </c>
+      <c r="F143" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -2570,13 +3445,17 @@
         <v>32.5</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D144" s="2">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2">
+        <v>295</v>
+      </c>
+      <c r="F144" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -2584,13 +3463,17 @@
         <v>46</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D145" s="2">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2">
+        <v>297</v>
+      </c>
+      <c r="F145" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -2598,13 +3481,17 @@
         <v>13.5</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D146" s="2">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2">
+        <v>299</v>
+      </c>
+      <c r="F146" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -2612,13 +3499,17 @@
         <v>18</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D147" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2">
+        <v>301</v>
+      </c>
+      <c r="F147" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -2626,13 +3517,17 @@
         <v>43.5</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D148" s="2">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2">
+        <v>303</v>
+      </c>
+      <c r="F148" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -2640,13 +3535,17 @@
         <v>41</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D149" s="2">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2">
+        <v>305</v>
+      </c>
+      <c r="F149" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -2654,13 +3553,17 @@
         <v>65.5</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D150" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2">
+        <v>307</v>
+      </c>
+      <c r="F150" s="2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -2668,13 +3571,17 @@
         <v>64</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D151" s="2">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2">
+        <v>309</v>
+      </c>
+      <c r="F151" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -2682,13 +3589,17 @@
         <v>8</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D152" s="2">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2">
+        <v>311</v>
+      </c>
+      <c r="F152" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -2696,13 +3607,17 @@
         <v>5.5</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D153" s="2">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2">
+        <v>313</v>
+      </c>
+      <c r="F153" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -2710,13 +3625,17 @@
         <v>3</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D154" s="2">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2">
+        <v>315</v>
+      </c>
+      <c r="F154" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -2724,13 +3643,17 @@
         <v>22</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D155" s="2">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2">
+        <v>317</v>
+      </c>
+      <c r="F155" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -2738,13 +3661,17 @@
         <v>30</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D156" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2">
+        <v>319</v>
+      </c>
+      <c r="F156" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -2752,13 +3679,17 @@
         <v>26</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D157" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2">
+        <v>321</v>
+      </c>
+      <c r="F157" s="2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -2766,13 +3697,17 @@
         <v>25</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D158" s="2">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2">
+        <v>323</v>
+      </c>
+      <c r="F158" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -2780,13 +3715,17 @@
         <v>27</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D159" s="2">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2">
+        <v>325</v>
+      </c>
+      <c r="F159" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -2794,13 +3733,17 @@
         <v>21.5</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D160" s="2">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2">
+        <v>327</v>
+      </c>
+      <c r="F160" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -2808,13 +3751,17 @@
         <v>27</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D161" s="2">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2">
+        <v>329</v>
+      </c>
+      <c r="F161" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -2822,13 +3769,17 @@
         <v>25</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D162" s="2">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2">
+        <v>331</v>
+      </c>
+      <c r="F162" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -2836,13 +3787,17 @@
         <v>24.5</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D163" s="2">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2">
+        <v>333</v>
+      </c>
+      <c r="F163" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -2850,13 +3805,17 @@
         <v>24</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D164" s="2">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2">
+        <v>335</v>
+      </c>
+      <c r="F164" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -2864,13 +3823,17 @@
         <v>26</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D165" s="2">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2">
+        <v>337</v>
+      </c>
+      <c r="F165" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -2878,13 +3841,17 @@
         <v>24</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D166" s="2">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2">
+        <v>339</v>
+      </c>
+      <c r="F166" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -2892,13 +3859,17 @@
         <v>24</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D167" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2">
+        <v>341</v>
+      </c>
+      <c r="F167" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -2906,13 +3877,17 @@
         <v>26.5</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D168" s="2">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2">
+        <v>343</v>
+      </c>
+      <c r="F168" s="2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -2920,13 +3895,17 @@
         <v>28</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D169" s="2">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2">
+        <v>345</v>
+      </c>
+      <c r="F169" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -2934,13 +3913,17 @@
         <v>29</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D170" s="2">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2">
+        <v>347</v>
+      </c>
+      <c r="F170" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -2948,13 +3931,17 @@
         <v>30.5</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D171" s="2">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2">
+        <v>349</v>
+      </c>
+      <c r="F171" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -2962,13 +3949,17 @@
         <v>29.5</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D172" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2">
+        <v>351</v>
+      </c>
+      <c r="F172" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -2976,13 +3967,17 @@
         <v>26</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D173" s="2">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2">
+        <v>353</v>
+      </c>
+      <c r="F173" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -2990,13 +3985,17 @@
         <v>28.5</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D174" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2">
+        <v>355</v>
+      </c>
+      <c r="F174" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -3004,13 +4003,17 @@
         <v>32</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D175" s="2">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2">
+        <v>357</v>
+      </c>
+      <c r="F175" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -3018,13 +4021,17 @@
         <v>31.5</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D176" s="2">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2">
+        <v>359</v>
+      </c>
+      <c r="F176" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -3032,13 +4039,17 @@
         <v>26</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D177" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2">
+        <v>361</v>
+      </c>
+      <c r="F177" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -3046,13 +4057,17 @@
         <v>31</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D178" s="2">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2">
+        <v>363</v>
+      </c>
+      <c r="F178" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -3060,13 +4075,17 @@
         <v>31</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D179" s="2">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2">
+        <v>365</v>
+      </c>
+      <c r="F179" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -3074,13 +4093,17 @@
         <v>32</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D180" s="2">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2">
+        <v>367</v>
+      </c>
+      <c r="F180" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -3088,13 +4111,17 @@
         <v>31</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D181" s="2">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2">
+        <v>369</v>
+      </c>
+      <c r="F181" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -3102,13 +4129,17 @@
         <v>32</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D182" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2">
+        <v>371</v>
+      </c>
+      <c r="F182" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -3116,13 +4147,17 @@
         <v>32</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D183" s="2">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2">
+        <v>373</v>
+      </c>
+      <c r="F183" s="2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -3130,13 +4165,17 @@
         <v>30.5</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D184" s="2">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2">
+        <v>375</v>
+      </c>
+      <c r="F184" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -3144,13 +4183,17 @@
         <v>32</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D185" s="2">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2">
+        <v>377</v>
+      </c>
+      <c r="F185" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -3158,13 +4201,17 @@
         <v>29</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D186" s="2">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2">
+        <v>379</v>
+      </c>
+      <c r="F186" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -3172,511 +4219,601 @@
         <v>34.5</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D187" s="2">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2">
+        <v>381</v>
+      </c>
+      <c r="F187" s="2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="4"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="4"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="4"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="4"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="4"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="4"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="4"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="4"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="4"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="4"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="4"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="4"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="4"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="4"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="4"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="4"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="4"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="4"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="4"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="4"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="4"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="4"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="4"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="4"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="4"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="4"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="4"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="4"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="4"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="4"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="4"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="4"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="4"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="4"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="4"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="4"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="4"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="4"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="4"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="4"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="4"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="4"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="4"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="4"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="4"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="4"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="4"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="4"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="4"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="4"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="4"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="4"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="4"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="4"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="4"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="4"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="4"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" s="4"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" s="4"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="4"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" s="4"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="4"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="4"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
+      <c r="E270" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3693,8 +4830,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009E16EE7F4C537C4ABFA407FB2C41B1C3" ma:contentTypeVersion="14" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="95de28441f96fc3214151cf7c07046a0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24c72473-a6f8-4ab9-b557-03d61fd61282" xmlns:ns3="6cb94949-7264-4e0b-b21a-9bdc50945768" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8da4ea20e3bb0e14e5b3e046fcf53faa" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E16EE7F4C537C4ABFA407FB2C41B1C3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9cf5f417a32a21f2b07b4d046093a9f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24c72473-a6f8-4ab9-b557-03d61fd61282" xmlns:ns3="6cb94949-7264-4e0b-b21a-9bdc50945768" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90e6e949921e66d62f929c4ef8436041" ns2:_="" ns3:_="">
     <xsd:import namespace="24c72473-a6f8-4ab9-b557-03d61fd61282"/>
     <xsd:import namespace="6cb94949-7264-4e0b-b21a-9bdc50945768"/>
     <xsd:element name="properties">
@@ -3785,7 +4922,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Billedmærker" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5d73657e-90f0-444e-a899-7df328d363f4" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5d73657e-90f0-444e-a899-7df328d363f4" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -3817,8 +4954,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Indholdstype"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -3916,20 +5053,5 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{056E0049-3ACE-4B71-AF49-9AE4CDEAFBA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="24c72473-a6f8-4ab9-b557-03d61fd61282"/>
-    <ds:schemaRef ds:uri="6cb94949-7264-4e0b-b21a-9bdc50945768"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91DA363E-8CC0-4681-84B1-C6F329D0446C}"/>
 </file>